--- a/biology/Zoologie/Hime_formosana/Hime_formosana.xlsx
+++ b/biology/Zoologie/Hime_formosana/Hime_formosana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hime formosana est une espèce de poissons marins téléostéens de la famille des Aulopidae.
 </t>
@@ -511,13 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Hime formosana a été décrite pour la première fois en 1994 par les zoologistes chinois Sin-Che Lee (d), Wei-Chao Chang (d) sous le protonyme Aulopus formosanus[1].
-Synonymie
-Selon Catalogue of Life [2]
-Aulopus formosanus, Lee &amp; Chao
-Hime formosanus, (Lee &amp; Chao)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hime formosana a été décrite pour la première fois en 1994 par les zoologistes chinois Sin-Che Lee (d), Wei-Chao Chang (d) sous le protonyme Aulopus formosanus.
+</t>
         </is>
       </c>
     </row>
@@ -542,14 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hime formosana possède un corps allongé qui varie entre 14,75 et 22,95 cm, et dont l'holotype mesure 16,94 cm[3].
-Comme les membres de la famille des Aulopidae, l'espèce a une nageoire dorsale dont la longueur dépasse la moitié de celle de l'ensemble du corps.
-</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life 
+Aulopus formosanus, Lee &amp; Chao
+Hime formosanus, (Lee &amp; Chao)</t>
         </is>
       </c>
     </row>
@@ -574,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se croise au large de Kyūshū, dans l'océan Pacifique et au large de Taïwan, à des profondeurs variant de 120 à 200 m[4].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hime formosana possède un corps allongé qui varie entre 14,75 et 22,95 cm, et dont l'holotype mesure 16,94 cm.
+Comme les membres de la famille des Aulopidae, l'espèce a une nageoire dorsale dont la longueur dépasse la moitié de celle de l'ensemble du corps.
 </t>
         </is>
       </c>
@@ -605,12 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, formosana est dérivé de Formosa, Formose en français, un des noms de Taïwan, où l'espèce a été découverte[5].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se croise au large de Kyūshū, dans l'océan Pacifique et au large de Taïwan, à des profondeurs variant de 120 à 200 m.
 </t>
         </is>
       </c>
@@ -636,13 +658,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Proies
-Prédateurs</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, formosana est dérivé de Formosa, Formose en français, un des noms de Taïwan, où l'espèce a été découverte.
+</t>
         </is>
       </c>
     </row>
@@ -671,6 +695,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -696,7 +722,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) Sin-Che Lee et Wei-Chen Chao, « A New Aulopid Species, Au/opus Formosanus (Aulopiformes: Aulopodidae) from Taiwan », Zoological Studies, vol. 33, no 3,‎ 1er juillet 1994, p. 211-216 (ISSN 1021-5506 et 1810-522X, lire en ligne)</t>
         </is>
